--- a/MDR_tabela_transformada.xlsx
+++ b/MDR_tabela_transformada.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Numeração</t>
   </si>
@@ -28,25 +28,19 @@
     <t>Data de Finalização</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.2</t>
+    <t>2.2.1.1</t>
+  </si>
+  <si>
+    <t>2.2.1.2</t>
+  </si>
+  <si>
+    <t>2.2.2.1</t>
+  </si>
+  <si>
+    <t>2.2.2.2</t>
+  </si>
+  <si>
+    <t>2.2.3.1</t>
   </si>
   <si>
     <t>Umbilical</t>
@@ -58,13 +52,16 @@
     <t>ANM</t>
   </si>
   <si>
-    <t>Luis</t>
-  </si>
-  <si>
     <t>MEL - Master Equipment List</t>
   </si>
   <si>
-    <t>Teste</t>
+    <t>CC - Cathodic &amp; Corrosion Report</t>
+  </si>
+  <si>
+    <t>DSGR - Design Report (Especificação Técnica)</t>
+  </si>
+  <si>
+    <t>GA - General Arrangement</t>
   </si>
 </sst>
 </file>
@@ -422,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,10 +450,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -464,10 +461,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -475,10 +472,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -486,10 +483,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -497,32 +494,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/MDR_tabela_transformada.xlsx
+++ b/MDR_tabela_transformada.xlsx
@@ -1,99 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MDR_Transformado" sheetId="1" r:id="rId1"/>
+    <sheet name="MDR_Transformado" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
-  <si>
-    <t>Numeração</t>
-  </si>
-  <si>
-    <t>Pacote</t>
-  </si>
-  <si>
-    <t>Nome do Documento</t>
-  </si>
-  <si>
-    <t>Data de Finalização</t>
-  </si>
-  <si>
-    <t>2.2.1.1</t>
-  </si>
-  <si>
-    <t>2.2.1.2</t>
-  </si>
-  <si>
-    <t>2.2.2.1</t>
-  </si>
-  <si>
-    <t>2.2.2.2</t>
-  </si>
-  <si>
-    <t>2.2.3.1</t>
-  </si>
-  <si>
-    <t>Umbilical</t>
-  </si>
-  <si>
-    <t>Conectores</t>
-  </si>
-  <si>
-    <t>ANM</t>
-  </si>
-  <si>
-    <t>MEL - Master Equipment List</t>
-  </si>
-  <si>
-    <t>CC - Cathodic &amp; Corrosion Report</t>
-  </si>
-  <si>
-    <t>DSGR - Design Report (Especificação Técnica)</t>
-  </si>
-  <si>
-    <t>GA - General Arrangement</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -101,36 +42,85 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -418,89 +408,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="46" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Campo:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>POL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Nome do Projeto:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Teste 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3"/>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Numeração</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pacote</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Nome do Documento</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Data de Finalização</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2.2.1.1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Umbilical</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MEL - Master Equipment List</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2.2.2.1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conectores</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DSGR - Design Report (Especificação Técnica)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2.2.2.2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conectores</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>GA - General Arrangement</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2.2.3.1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ANM</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>GA - General Arrangement</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/MDR_tabela_transformada.xlsx
+++ b/MDR_tabela_transformada.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,10 +433,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="46" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="66" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -435,77 +447,54 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>ABL</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nome do Projeto:</t>
+          <t>Projeto:</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Teste 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3"/>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+          <t>MEL - Master Equipment List 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Numeração</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>Pacote</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Nome do Documento</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>Data de Finalização</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2.2.1.1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Umbilical</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MEL - Master Equipment List</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2.2.2.1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Conectores</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DSGR - Design Report (Especificação Técnica)</t>
+          <t>PORTFÓLIO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -513,17 +502,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2.2.2.2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Conectores</t>
-        </is>
-      </c>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GA - General Arrangement</t>
+          <t>BOD - Basis of Design Preliminar</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -531,20 +516,582 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TAP - Formulário de Análise de Oportunidade</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CRONOP - Cronograma Preliminar</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>AEM - Análise de Estoque de materiais PRIO</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MPL - Master Project List Preliminar</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>AFE - Approval for Expenditure</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SUBLAYP - Subsea Layout Preliminar</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BFD - Block Flow Diagram Preliminar</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>STIME - Cronograma Preliminar de Operação (Subsea Time)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PLANEJAMENTO - SYSTEM</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2.1.1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SCH - Project Baseline Schedule</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2.1.2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>WBS - Work Breakdown Structure</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2.1.3</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>BoD - Basis of Design</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2.1.4</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>BFD - Block Flow Diagram</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2.1.5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SUBLAY - Subsea Layout</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2.1.6</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DBD - Database Design</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2.1.7</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SGSS - Checklist de Atendimento ao SGSS</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2.1.8</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MDR - Master Document Register Re</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2.1.9</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>HAZID - Project HAZID</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2.1.10</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>HDS - Overall System Hydraulic Schematic</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2.1.11</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ELS - Overall System Electrical Schematic</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2.1.12</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BATIM - Bathimetry Report</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2.1.13</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>GEOTEC - Geotechnical Report</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2.1.14</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SBL - Scope Battery Limit</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2.1.15</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>FASS - Flow Assurance Report</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2.1.16</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>HEA - Hydraulical and Electrical Analysis</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2.1.17</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PRIR - Preliminary Recovery and Installation Requirements</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2.1.18</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SCEM - Subsea Cause and Effect Matrix</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2.1.19</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Material Compatibility Assessment | Material Selection Report</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2.2.1.1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Umbilical</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MEL - Master Equipment List</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2.2.2.1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Conectores</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DSGR - Design Report (Especificação Técnica)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2.2.2.2</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Conectores</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CC - Cathodic &amp; Corrosion Report</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>2.2.3.1</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>ANM</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>GA - General Arrangement</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2.2.3.2</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ANM</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CC - Cathodic &amp; Corrosion Report</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3.</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>FINALIZAÇÃO</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3.1.</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>FLDLAY - Subsea Layout As Built</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3.2.</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>BFD - Block Flow Diagram As Built</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3.3.</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SGSS - Checklist de Atendimento ao SGSS (Fase de Instalação)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3.4.</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ICUE - Relatório Changelog do iCUE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3.5.</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DPP - Cadastro no DPP da ANP</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3.6.</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MPL - Master Project List final de Projeto</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MDR_tabela_transformada.xlsx
+++ b/MDR_tabela_transformada.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="MDR_Transformado" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MDR_Transformado!$A$2:$D$6</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Numeração</t>
   </si>
@@ -37,9 +40,6 @@
     <t>2.2.2.1</t>
   </si>
   <si>
-    <t>2.2.2.2</t>
-  </si>
-  <si>
     <t>2.2.3.1</t>
   </si>
   <si>
@@ -62,13 +62,16 @@
   </si>
   <si>
     <t>GA - General Arrangement</t>
+  </si>
+  <si>
+    <t>Teste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,22 +81,40 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="20"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF363636"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF61CBF3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,14 +137,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,86 +463,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:D6"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>